--- a/xlsx/rekap.xlsx
+++ b/xlsx/rekap.xlsx
@@ -431,31 +431,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="n">
-        <v>0.476</v>
+        <v>0.326</v>
       </c>
       <c r="D1" t="n">
-        <v>3.977</v>
+        <v>10.388</v>
       </c>
       <c r="E1" t="n">
-        <v>1.196</v>
+        <v>1.151</v>
       </c>
       <c r="F1" t="n">
         <v>0.001</v>
       </c>
       <c r="G1" t="n">
-        <v>0.005</v>
+        <v>0.034</v>
       </c>
       <c r="H1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="I1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J1" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K1" t="n">
-        <v>90.90900000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
@@ -468,31 +468,31 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.523</v>
+        <v>0.336</v>
       </c>
       <c r="D2" t="n">
-        <v>3.733</v>
+        <v>2.084</v>
       </c>
       <c r="E2" t="n">
-        <v>1.213</v>
+        <v>0.988</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K2" t="n">
-        <v>81.818</v>
+        <v>91.111</v>
       </c>
     </row>
     <row r="3">
@@ -505,31 +505,31 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.629</v>
+        <v>0.335</v>
       </c>
       <c r="D3" t="n">
-        <v>4.317</v>
+        <v>1.841</v>
       </c>
       <c r="E3" t="n">
-        <v>1.413</v>
+        <v>0.86</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3" t="n">
-        <v>68.182</v>
+        <v>73.333</v>
       </c>
     </row>
     <row r="4">
@@ -542,31 +542,31 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.602</v>
+        <v>0.437</v>
       </c>
       <c r="D4" t="n">
-        <v>3.553</v>
+        <v>2.245</v>
       </c>
       <c r="E4" t="n">
-        <v>1.292</v>
+        <v>1.026</v>
       </c>
       <c r="F4" t="n">
         <v>0.001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="H4" t="n">
         <v>0.003</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K4" t="n">
-        <v>88.636</v>
+        <v>93.333</v>
       </c>
     </row>
     <row r="5">
@@ -579,31 +579,31 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.638</v>
+        <v>0.451</v>
       </c>
       <c r="D5" t="n">
-        <v>3.849</v>
+        <v>2.069</v>
       </c>
       <c r="E5" t="n">
-        <v>1.375</v>
+        <v>1.019</v>
       </c>
       <c r="F5" t="n">
         <v>0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="H5" t="n">
         <v>0.003</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" t="n">
-        <v>84.09099999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -616,19 +616,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.718</v>
+        <v>0.435</v>
       </c>
       <c r="D6" t="n">
-        <v>4.506</v>
+        <v>2.203</v>
       </c>
       <c r="E6" t="n">
-        <v>1.546</v>
+        <v>1.032</v>
       </c>
       <c r="F6" t="n">
         <v>0.001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="H6" t="n">
         <v>0.003</v>
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" t="n">
-        <v>61.364</v>
+        <v>62.222</v>
       </c>
     </row>
     <row r="7">
@@ -653,31 +653,31 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0.707</v>
+        <v>0.541</v>
       </c>
       <c r="D7" t="n">
-        <v>3.653</v>
+        <v>2.304</v>
       </c>
       <c r="E7" t="n">
-        <v>1.339</v>
+        <v>1.06</v>
       </c>
       <c r="F7" t="n">
         <v>0.002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="H7" t="n">
         <v>0.003</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>63.636</v>
+        <v>55.556</v>
       </c>
     </row>
     <row r="8">
@@ -690,31 +690,31 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.747</v>
+        <v>0.545</v>
       </c>
       <c r="D8" t="n">
-        <v>3.973</v>
+        <v>2.58</v>
       </c>
       <c r="E8" t="n">
-        <v>1.403</v>
+        <v>1.072</v>
       </c>
       <c r="F8" t="n">
         <v>0.002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
         <v>26</v>
       </c>
       <c r="K8" t="n">
-        <v>59.091</v>
+        <v>57.778</v>
       </c>
     </row>
     <row r="9">
@@ -727,19 +727,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0.859</v>
+        <v>0.542</v>
       </c>
       <c r="D9" t="n">
-        <v>4.452</v>
+        <v>2.492</v>
       </c>
       <c r="E9" t="n">
-        <v>1.573</v>
+        <v>1.063</v>
       </c>
       <c r="F9" t="n">
         <v>0.002</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="H9" t="n">
         <v>0.003</v>
@@ -748,10 +748,10 @@
         <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>31.818</v>
+        <v>33.333</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.487</v>
+        <v>0.328</v>
       </c>
       <c r="D10" t="n">
-        <v>4.182</v>
+        <v>2.854</v>
       </c>
       <c r="E10" t="n">
-        <v>1.252</v>
+        <v>1.032</v>
       </c>
       <c r="F10" t="n">
         <v>0.001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0.003</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K10" t="n">
-        <v>93.182</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -801,31 +801,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>0.531</v>
+        <v>0.32</v>
       </c>
       <c r="D11" t="n">
-        <v>4.463</v>
+        <v>2.874</v>
       </c>
       <c r="E11" t="n">
-        <v>1.348</v>
+        <v>1.034</v>
       </c>
       <c r="F11" t="n">
         <v>0.001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0.003</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K11" t="n">
-        <v>81.818</v>
+        <v>91.111</v>
       </c>
     </row>
     <row r="12">
@@ -838,31 +838,31 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>0.625</v>
+        <v>0.324</v>
       </c>
       <c r="D12" t="n">
-        <v>4.897</v>
+        <v>3.025</v>
       </c>
       <c r="E12" t="n">
-        <v>1.559</v>
+        <v>1.042</v>
       </c>
       <c r="F12" t="n">
         <v>0.001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="H12" t="n">
         <v>0.003</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K12" t="n">
-        <v>68.182</v>
+        <v>75.556</v>
       </c>
     </row>
     <row r="13">
@@ -875,31 +875,31 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6</v>
+        <v>0.434</v>
       </c>
       <c r="D13" t="n">
-        <v>4.441</v>
+        <v>3.224</v>
       </c>
       <c r="E13" t="n">
-        <v>1.417</v>
+        <v>1.201</v>
       </c>
       <c r="F13" t="n">
         <v>0.001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K13" t="n">
-        <v>88.636</v>
+        <v>95.556</v>
       </c>
     </row>
     <row r="14">
@@ -912,31 +912,31 @@
         <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>0.634</v>
+        <v>0.442</v>
       </c>
       <c r="D14" t="n">
-        <v>4.621</v>
+        <v>3.35</v>
       </c>
       <c r="E14" t="n">
-        <v>1.49</v>
+        <v>1.201</v>
       </c>
       <c r="F14" t="n">
         <v>0.001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
-        <v>84.09099999999999</v>
+        <v>77.77800000000001</v>
       </c>
     </row>
     <row r="15">
@@ -949,31 +949,31 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="D15" t="n">
-        <v>5.172</v>
+        <v>3.218</v>
       </c>
       <c r="E15" t="n">
-        <v>1.717</v>
+        <v>1.203</v>
       </c>
       <c r="F15" t="n">
         <v>0.001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" t="n">
-        <v>59.091</v>
+        <v>62.222</v>
       </c>
     </row>
     <row r="16">
@@ -986,31 +986,31 @@
         <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>0.702</v>
+        <v>0.536</v>
       </c>
       <c r="D16" t="n">
-        <v>4.451</v>
+        <v>3.738</v>
       </c>
       <c r="E16" t="n">
-        <v>1.455</v>
+        <v>1.23</v>
       </c>
       <c r="F16" t="n">
         <v>0.002</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K16" t="n">
-        <v>65.90900000000001</v>
+        <v>48.889</v>
       </c>
     </row>
     <row r="17">
@@ -1023,31 +1023,31 @@
         <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>0.749</v>
+        <v>0.502</v>
       </c>
       <c r="D17" t="n">
-        <v>4.657</v>
+        <v>3.505</v>
       </c>
       <c r="E17" t="n">
-        <v>1.524</v>
+        <v>1.213</v>
       </c>
       <c r="F17" t="n">
         <v>0.002</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" t="n">
-        <v>52.273</v>
+        <v>48.889</v>
       </c>
     </row>
     <row r="18">
@@ -1060,31 +1060,31 @@
         <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>0.892</v>
+        <v>0.524</v>
       </c>
       <c r="D18" t="n">
-        <v>5.215</v>
+        <v>3.329</v>
       </c>
       <c r="E18" t="n">
-        <v>1.697</v>
+        <v>1.228</v>
       </c>
       <c r="F18" t="n">
         <v>0.002</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="H18" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" t="n">
-        <v>34.091</v>
+        <v>31.111</v>
       </c>
     </row>
     <row r="19">
@@ -1097,31 +1097,31 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>0.494</v>
+        <v>0.319</v>
       </c>
       <c r="D19" t="n">
-        <v>6.25</v>
+        <v>6.848</v>
       </c>
       <c r="E19" t="n">
-        <v>1.361</v>
+        <v>1.308</v>
       </c>
       <c r="F19" t="n">
         <v>0.001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.013</v>
+        <v>0.023</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K19" t="n">
-        <v>93.182</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -1134,31 +1134,31 @@
         <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>0.526</v>
+        <v>0.332</v>
       </c>
       <c r="D20" t="n">
-        <v>6.499</v>
+        <v>6.837</v>
       </c>
       <c r="E20" t="n">
-        <v>1.438</v>
+        <v>1.309</v>
       </c>
       <c r="F20" t="n">
         <v>0.001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.013</v>
+        <v>0.023</v>
       </c>
       <c r="H20" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K20" t="n">
-        <v>81.818</v>
+        <v>91.111</v>
       </c>
     </row>
     <row r="21">
@@ -1171,31 +1171,31 @@
         <v>21</v>
       </c>
       <c r="C21" t="n">
-        <v>0.636</v>
+        <v>0.323</v>
       </c>
       <c r="D21" t="n">
-        <v>6.938</v>
+        <v>6.848</v>
       </c>
       <c r="E21" t="n">
-        <v>1.62</v>
+        <v>1.306</v>
       </c>
       <c r="F21" t="n">
         <v>0.001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.013</v>
+        <v>0.023</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K21" t="n">
-        <v>68.182</v>
+        <v>75.556</v>
       </c>
     </row>
     <row r="22">
@@ -1208,31 +1208,31 @@
         <v>22</v>
       </c>
       <c r="C22" t="n">
-        <v>0.597</v>
+        <v>0.439</v>
       </c>
       <c r="D22" t="n">
-        <v>6.485</v>
+        <v>7.424</v>
       </c>
       <c r="E22" t="n">
-        <v>1.528</v>
+        <v>1.479</v>
       </c>
       <c r="F22" t="n">
         <v>0.001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="H22" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22" t="n">
-        <v>88.636</v>
+        <v>88.889</v>
       </c>
     </row>
     <row r="23">
@@ -1245,31 +1245,31 @@
         <v>23</v>
       </c>
       <c r="C23" t="n">
-        <v>0.638</v>
+        <v>0.438</v>
       </c>
       <c r="D23" t="n">
-        <v>6.665</v>
+        <v>7.245</v>
       </c>
       <c r="E23" t="n">
-        <v>1.592</v>
+        <v>1.48</v>
       </c>
       <c r="F23" t="n">
         <v>0.001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="H23" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23" t="n">
-        <v>84.09099999999999</v>
+        <v>77.77800000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1282,31 +1282,31 @@
         <v>24</v>
       </c>
       <c r="C24" t="n">
-        <v>0.722</v>
+        <v>0.44</v>
       </c>
       <c r="D24" t="n">
-        <v>7.224</v>
+        <v>7.227</v>
       </c>
       <c r="E24" t="n">
-        <v>1.785</v>
+        <v>1.474</v>
       </c>
       <c r="F24" t="n">
         <v>0.001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="H24" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="I24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>59.091</v>
+        <v>62.222</v>
       </c>
     </row>
     <row r="25">
@@ -1319,31 +1319,31 @@
         <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>0.709</v>
+        <v>0.536</v>
       </c>
       <c r="D25" t="n">
-        <v>6.433</v>
+        <v>7.419</v>
       </c>
       <c r="E25" t="n">
-        <v>1.56</v>
+        <v>1.505</v>
       </c>
       <c r="F25" t="n">
         <v>0.002</v>
       </c>
       <c r="G25" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="I25" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>63.636</v>
+        <v>51.111</v>
       </c>
     </row>
     <row r="26">
@@ -1356,31 +1356,31 @@
         <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>0.749</v>
+        <v>0.537</v>
       </c>
       <c r="D26" t="n">
-        <v>6.696</v>
+        <v>7.251</v>
       </c>
       <c r="E26" t="n">
-        <v>1.635</v>
+        <v>1.505</v>
       </c>
       <c r="F26" t="n">
         <v>0.002</v>
       </c>
       <c r="G26" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="I26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" t="n">
         <v>23</v>
       </c>
       <c r="K26" t="n">
-        <v>52.273</v>
+        <v>51.111</v>
       </c>
     </row>
     <row r="27">
@@ -1393,31 +1393,31 @@
         <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>0.856</v>
+        <v>0.536</v>
       </c>
       <c r="D27" t="n">
-        <v>7.341</v>
+        <v>7.452</v>
       </c>
       <c r="E27" t="n">
-        <v>1.818</v>
+        <v>1.505</v>
       </c>
       <c r="F27" t="n">
         <v>0.002</v>
       </c>
       <c r="G27" t="n">
-        <v>0.014</v>
+        <v>0.025</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="I27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K27" t="n">
-        <v>29.545</v>
+        <v>33.333</v>
       </c>
     </row>
   </sheetData>
